--- a/data/trans_dic/P16A20_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Habitat-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -53,34 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -513,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,21 +501,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -552,85 +515,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -642,15 +551,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -664,39 +564,12 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>0.01077728114899381</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
+        <v>0.08848234764012956</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>0.01077728114899381</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.08848234764012956</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="n">
         <v>0.05078690231677665</v>
       </c>
     </row>
@@ -707,22 +580,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>0.005363361445412476</v>
       </c>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.0757499450681003</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>0.04189529417662634</v>
       </c>
     </row>
@@ -733,22 +597,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="n">
+      <c r="C6" s="5" t="n">
         <v>0.0188700587822479</v>
       </c>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="n">
+      <c r="D6" s="5" t="n">
         <v>0.1092652958212285</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>0.06019301176599804</v>
       </c>
     </row>
@@ -764,39 +619,12 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0</v>
+        <v>0.0130429563245599</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>0.08041509177424606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>0.0130429563245599</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.08041509177424606</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
         <v>0.04707142172238712</v>
       </c>
     </row>
@@ -807,22 +635,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="n">
+      <c r="C8" s="5" t="n">
         <v>0.007007940192837326</v>
       </c>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="n">
+      <c r="D8" s="5" t="n">
         <v>0.06758166290375024</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>0.0398049116011011</v>
       </c>
     </row>
@@ -833,22 +652,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="n">
+      <c r="C9" s="5" t="n">
         <v>0.02162894300644439</v>
       </c>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="n">
+      <c r="D9" s="5" t="n">
         <v>0.09423822492322767</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>0.05485746603067911</v>
       </c>
     </row>
@@ -864,39 +674,12 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>0.009919728880201052</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>0.08183334709876439</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.009919728880201052</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.08183334709876439</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
         <v>0.04607388932862337</v>
       </c>
     </row>
@@ -907,22 +690,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="5" t="n">
         <v>0.00483714667640602</v>
       </c>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="n">
+      <c r="D11" s="5" t="n">
         <v>0.06658255945435118</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.03761865807460667</v>
       </c>
     </row>
@@ -933,22 +707,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.01912043495791069</v>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
+      <c r="D12" s="5" t="n">
         <v>0.101677211842026</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.05645335725711048</v>
       </c>
     </row>
@@ -964,39 +729,12 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>0.01850607697027355</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>0.08392658246823786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.01850607697027355</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.08392658246823786</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
         <v>0.05318737250964253</v>
       </c>
     </row>
@@ -1007,22 +745,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="n">
+      <c r="C14" s="5" t="n">
         <v>0.01078725818753237</v>
       </c>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="n">
+      <c r="D14" s="5" t="n">
         <v>0.07044559765325063</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.04551341515322649</v>
       </c>
     </row>
@@ -1033,22 +762,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.03212558115206306</v>
       </c>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.0990211973966746</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.06308060711442369</v>
       </c>
     </row>
@@ -1064,39 +784,12 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0</v>
+        <v>0.01342203222106385</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>0.08335939018949527</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>0.01342203222106385</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.08335939018949527</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
         <v>0.04935247601522098</v>
       </c>
     </row>
@@ -1107,22 +800,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.009490426092679763</v>
       </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.07564579918247535</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.04508302511540447</v>
       </c>
     </row>
@@ -1133,22 +817,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="n">
+      <c r="C18" s="5" t="n">
         <v>0.01785674746800205</v>
       </c>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
+      <c r="D18" s="5" t="n">
         <v>0.09057722051449342</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.05406271006467305</v>
       </c>
     </row>
@@ -1160,15 +835,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1181,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1197,21 +869,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas 2 semanas (tasa de respuesta: 99,91%)</t>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides en las últimas dos semanas (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1220,85 +883,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1310,15 +919,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1332,39 +932,12 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>115</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
         <v>126</v>
       </c>
     </row>
@@ -1376,39 +949,12 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
+        <v>7444</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0</v>
+        <v>64868</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>7444</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>64868</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
         <v>72312</v>
       </c>
     </row>
@@ -1419,22 +965,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="6" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr"/>
-      <c r="F6" s="6" t="n">
+      <c r="C6" s="6" t="n">
         <v>3705</v>
       </c>
-      <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="6" t="n">
+      <c r="D6" s="6" t="n">
         <v>55533</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
-      <c r="L6" s="6" t="inlineStr"/>
-      <c r="M6" s="6" t="inlineStr"/>
-      <c r="N6" s="6" t="n">
+      <c r="E6" s="6" t="n">
         <v>59651</v>
       </c>
     </row>
@@ -1445,22 +982,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr"/>
-      <c r="D7" s="6" t="inlineStr"/>
-      <c r="E7" s="6" t="inlineStr"/>
-      <c r="F7" s="6" t="n">
+      <c r="C7" s="6" t="n">
         <v>13034</v>
       </c>
-      <c r="G7" s="6" t="inlineStr"/>
-      <c r="H7" s="6" t="inlineStr"/>
-      <c r="I7" s="6" t="inlineStr"/>
-      <c r="J7" s="6" t="n">
+      <c r="D7" s="6" t="n">
         <v>80104</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
-      <c r="L7" s="6" t="inlineStr"/>
-      <c r="M7" s="6" t="inlineStr"/>
-      <c r="N7" s="6" t="n">
+      <c r="E7" s="6" t="n">
         <v>85704</v>
       </c>
     </row>
@@ -1476,39 +1004,12 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>137</v>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1520,39 +1021,12 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0</v>
+        <v>13681</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0</v>
+        <v>86081</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>13681</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>86081</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="n">
         <v>99762</v>
       </c>
     </row>
@@ -1563,22 +1037,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr"/>
-      <c r="D10" s="6" t="inlineStr"/>
-      <c r="E10" s="6" t="inlineStr"/>
-      <c r="F10" s="6" t="n">
+      <c r="C10" s="6" t="n">
         <v>7351</v>
       </c>
-      <c r="G10" s="6" t="inlineStr"/>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
-      <c r="J10" s="6" t="n">
+      <c r="D10" s="6" t="n">
         <v>72343</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
-      <c r="L10" s="6" t="inlineStr"/>
-      <c r="M10" s="6" t="inlineStr"/>
-      <c r="N10" s="6" t="n">
+      <c r="E10" s="6" t="n">
         <v>84362</v>
       </c>
     </row>
@@ -1589,22 +1054,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr"/>
-      <c r="D11" s="6" t="inlineStr"/>
-      <c r="E11" s="6" t="inlineStr"/>
-      <c r="F11" s="6" t="n">
+      <c r="C11" s="6" t="n">
         <v>22687</v>
       </c>
-      <c r="G11" s="6" t="inlineStr"/>
-      <c r="H11" s="6" t="inlineStr"/>
-      <c r="I11" s="6" t="inlineStr"/>
-      <c r="J11" s="6" t="n">
+      <c r="D11" s="6" t="n">
         <v>100878</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
-      <c r="L11" s="6" t="inlineStr"/>
-      <c r="M11" s="6" t="inlineStr"/>
-      <c r="N11" s="6" t="n">
+      <c r="E11" s="6" t="n">
         <v>116264</v>
       </c>
     </row>
@@ -1620,39 +1076,12 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>91</v>
-      </c>
-      <c r="K12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1664,39 +1093,12 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0</v>
+        <v>7956</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0</v>
+        <v>66362</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>7956</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>66362</v>
-      </c>
-      <c r="K13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="n">
         <v>74318</v>
       </c>
     </row>
@@ -1707,22 +1109,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr"/>
-      <c r="D14" s="6" t="inlineStr"/>
-      <c r="E14" s="6" t="inlineStr"/>
-      <c r="F14" s="6" t="n">
+      <c r="C14" s="6" t="n">
         <v>3880</v>
       </c>
-      <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
+      <c r="D14" s="6" t="n">
         <v>53994</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
-      <c r="L14" s="6" t="inlineStr"/>
-      <c r="M14" s="6" t="inlineStr"/>
-      <c r="N14" s="6" t="n">
+      <c r="E14" s="6" t="n">
         <v>60680</v>
       </c>
     </row>
@@ -1733,22 +1126,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
-      <c r="E15" s="6" t="inlineStr"/>
-      <c r="F15" s="6" t="n">
+      <c r="C15" s="6" t="n">
         <v>15336</v>
       </c>
-      <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
-      <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
+      <c r="D15" s="6" t="n">
         <v>82454</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
-      <c r="L15" s="6" t="inlineStr"/>
-      <c r="M15" s="6" t="inlineStr"/>
-      <c r="N15" s="6" t="n">
+      <c r="E15" s="6" t="n">
         <v>91061</v>
       </c>
     </row>
@@ -1764,39 +1148,12 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>145</v>
-      </c>
-      <c r="K16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6" t="n">
         <v>163</v>
       </c>
     </row>
@@ -1808,39 +1165,12 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>18322</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0</v>
+        <v>93749</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>18322</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>93749</v>
-      </c>
-      <c r="K17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6" t="n">
         <v>112071</v>
       </c>
     </row>
@@ -1851,22 +1181,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr"/>
-      <c r="D18" s="6" t="inlineStr"/>
-      <c r="E18" s="6" t="inlineStr"/>
-      <c r="F18" s="6" t="n">
+      <c r="C18" s="6" t="n">
         <v>10680</v>
       </c>
-      <c r="G18" s="6" t="inlineStr"/>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="6" t="n">
+      <c r="D18" s="6" t="n">
         <v>78690</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
-      <c r="L18" s="6" t="inlineStr"/>
-      <c r="M18" s="6" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
+      <c r="E18" s="6" t="n">
         <v>95901</v>
       </c>
     </row>
@@ -1877,22 +1198,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr"/>
-      <c r="D19" s="6" t="inlineStr"/>
-      <c r="E19" s="6" t="inlineStr"/>
-      <c r="F19" s="6" t="n">
+      <c r="C19" s="6" t="n">
         <v>31806</v>
       </c>
-      <c r="G19" s="6" t="inlineStr"/>
-      <c r="H19" s="6" t="inlineStr"/>
-      <c r="I19" s="6" t="inlineStr"/>
-      <c r="J19" s="6" t="n">
+      <c r="D19" s="6" t="n">
         <v>110610</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
-      <c r="L19" s="6" t="inlineStr"/>
-      <c r="M19" s="6" t="inlineStr"/>
-      <c r="N19" s="6" t="n">
+      <c r="E19" s="6" t="n">
         <v>132917</v>
       </c>
     </row>
@@ -1908,39 +1220,12 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>51</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>488</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6" t="n">
         <v>539</v>
       </c>
     </row>
@@ -1952,39 +1237,12 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0</v>
+        <v>47404</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0</v>
+        <v>311059</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>47404</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>311059</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="n">
         <v>358463</v>
       </c>
     </row>
@@ -1995,22 +1253,13 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr"/>
-      <c r="D22" s="6" t="inlineStr"/>
-      <c r="E22" s="6" t="inlineStr"/>
-      <c r="F22" s="6" t="n">
+      <c r="C22" s="6" t="n">
         <v>33518</v>
       </c>
-      <c r="G22" s="6" t="inlineStr"/>
-      <c r="H22" s="6" t="inlineStr"/>
-      <c r="I22" s="6" t="inlineStr"/>
-      <c r="J22" s="6" t="n">
+      <c r="D22" s="6" t="n">
         <v>282275</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
-      <c r="L22" s="6" t="inlineStr"/>
-      <c r="M22" s="6" t="inlineStr"/>
-      <c r="N22" s="6" t="n">
+      <c r="E22" s="6" t="n">
         <v>327452</v>
       </c>
     </row>
@@ -2021,22 +1270,13 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr"/>
-      <c r="D23" s="6" t="inlineStr"/>
-      <c r="E23" s="6" t="inlineStr"/>
-      <c r="F23" s="6" t="n">
+      <c r="C23" s="6" t="n">
         <v>63066</v>
       </c>
-      <c r="G23" s="6" t="inlineStr"/>
-      <c r="H23" s="6" t="inlineStr"/>
-      <c r="I23" s="6" t="inlineStr"/>
-      <c r="J23" s="6" t="n">
+      <c r="D23" s="6" t="n">
         <v>337993</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
-      <c r="L23" s="6" t="inlineStr"/>
-      <c r="M23" s="6" t="inlineStr"/>
-      <c r="N23" s="6" t="n">
+      <c r="E23" s="6" t="n">
         <v>392675</v>
       </c>
     </row>
@@ -2048,15 +1288,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
